--- a/SQL-Project-DVD-Rental/DVDRental_output_and_charts.xlsx
+++ b/SQL-Project-DVD-Rental/DVDRental_output_and_charts.xlsx
@@ -1,26 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvana\Desktop\Data Science\UDACITY\Programming Data Science Nanodegree\Programming-for-Data-Science-with-Python-Nanodegree-Udacity\SQL-Project-DVD-Rental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D3B753E-109A-480F-9278-DF75B68B70E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F9AB85-36D7-4F3C-928C-C7E22C655120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DVDRental_Q1_output" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1_output" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2_Output" sheetId="2" r:id="rId2"/>
+    <sheet name="Q3_Output" sheetId="6" r:id="rId3"/>
+    <sheet name="Q4_output" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>category_name</t>
   </si>
@@ -75,12 +94,78 @@
   <si>
     <t>Music</t>
   </si>
+  <si>
+    <t>average_rental_duration</t>
+  </si>
+  <si>
+    <t>Drama category has a higher average rental duration than most other categories, which could indicate that people are more likely to rent movies from this category for longer periods of time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports category has generated the highest revenue, followed by Sci-Fi and Animation. </t>
+  </si>
+  <si>
+    <t>movie_category</t>
+  </si>
+  <si>
+    <t>total_revenue</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>01-Feb</t>
+  </si>
+  <si>
+    <t>01-Mar</t>
+  </si>
+  <si>
+    <t>01-Apr</t>
+  </si>
+  <si>
+    <t>01-May</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of revenue</t>
+  </si>
+  <si>
+    <t>_5_day_moving_avg</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>day_revenue</t>
+  </si>
+  <si>
+    <t>1. What are the percentages of rental count for each movie category?</t>
+  </si>
+  <si>
+    <t>2. What is the total revenue and average rental duration for each movie category?</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>3. What is the revenue generated by each store per month?</t>
+  </si>
+  <si>
+    <t>4. Plot daily revenue and its 5 day moving average during 2007</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +299,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -557,8 +654,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -604,7 +711,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -632,6 +746,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ount by Movie Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -673,7 +828,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DVDRental_Q1_output!$B$1</c:f>
+              <c:f>Q1_output!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -752,7 +907,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DVDRental_Q1_output!$A$2:$A$17</c:f>
+              <c:f>Q1_output!$A$2:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -808,7 +963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DVDRental_Q1_output!$B$2:$B$17</c:f>
+              <c:f>Q1_output!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1035,7 +1190,2587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>evenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>verage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>duration by Movie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ategory</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q2_Output!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Q2_Output!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sci-Fi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Animation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Drama</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Comedy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Action</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Foreign</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Documentary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Horror</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Classics</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Children</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q2_Output!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4892.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4336.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4245.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4118.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4002.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3966.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3951.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3934.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3922.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3830.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3749.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3401.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3353.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3309.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3227.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3071.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-616F-4986-8596-21B0CFBBC789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="140"/>
+        <c:overlap val="-27"/>
+        <c:axId val="484309023"/>
+        <c:axId val="486541791"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q2_Output!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average_rental_duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Q2_Output!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sci-Fi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Animation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Drama</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Comedy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Action</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Foreign</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Documentary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Horror</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Classics</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Children</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q2_Output!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-616F-4986-8596-21B0CFBBC789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q2_Output!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Column1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Q2_Output!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sci-Fi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Animation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Drama</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Comedy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Action</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Foreign</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Games</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Documentary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Horror</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Classics</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Children</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Music</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q2_Output!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1CD-4416-975E-95BDD1BE71B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="483493759"/>
+        <c:axId val="486539391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484309023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>movie_category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486541791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486541791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>total_revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484309023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486539391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>average_rental_duration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483493759"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="483493759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="486539391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[DVDRental_output_and_charts.xlsx]Q3_Output!PivotTable22</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Revenue per Month by each Store</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q3_Output!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Q3_Output!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>01-Feb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01-Mar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01-Apr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>01-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q3_Output!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4465.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13019.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15858.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>283.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB40-40C5-9DA6-1C8BA01A074F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q3_Output!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Q3_Output!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>01-Feb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01-Mar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>01-Apr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>01-May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q3_Output!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3886.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10867.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12700.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DB40-40C5-9DA6-1C8BA01A074F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="89175775"/>
+        <c:axId val="76183839"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89175775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76183839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76183839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89175775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Revenue over time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>vs 5-day Moving Average</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q4_output!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>day_revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Q4_output!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>39127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39161</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39181</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39183</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39201</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39202</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q4_output!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>116.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1188.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1154.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1188.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1275.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1290.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1219.0899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>917.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2808.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2550.0500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>299.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2442.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2701.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2617.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2669.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2868.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2586.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2342.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>273.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2077.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1984.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2227.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2067.86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1973.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1940.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1930.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>347.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2673.57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2622.73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2717.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5723.89</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>514.17999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3615-433C-820C-6DE8E269B731}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Q4_output!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_5_day_moving_avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Q4_output!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>39127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39161</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39181</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39183</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39201</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39202</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Q4_output!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3615-433C-820C-6DE8E269B731}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="235135407"/>
+        <c:axId val="498815455"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="235135407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498815455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="498815455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235135407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1225,6 +3960,1528 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1617,6 +5874,1157 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" descr="Chart type: Clustered Column, Line. 'total_revenue', 'average_rental_duration' by 'movie_category'&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63C4F75-A78A-2170-7783-B263363835A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90334130-413C-8055-78E1-757DE42D3035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E561DF-D003-4066-CF8B-2A53A85517E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anand Siva P V" refreshedDate="45012.980452083335" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{D41C1720-B6E3-4461-A4D1-CF20CF499979}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C9" sheet="Q3 Output"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="payment_month" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2007-02-01T00:00:00" maxDate="2007-05-02T00:00:00" count="4">
+        <d v="2007-02-01T00:00:00"/>
+        <d v="2007-03-01T00:00:00"/>
+        <d v="2007-04-01T00:00:00"/>
+        <d v="2007-05-01T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="3" base="0">
+        <rangePr groupBy="days" startDate="2007-02-01T00:00:00" endDate="2007-05-02T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;01-02-2007"/>
+          <s v="01-Jan"/>
+          <s v="02-Jan"/>
+          <s v="03-Jan"/>
+          <s v="04-Jan"/>
+          <s v="05-Jan"/>
+          <s v="06-Jan"/>
+          <s v="07-Jan"/>
+          <s v="08-Jan"/>
+          <s v="09-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="01-Feb"/>
+          <s v="02-Feb"/>
+          <s v="03-Feb"/>
+          <s v="04-Feb"/>
+          <s v="05-Feb"/>
+          <s v="06-Feb"/>
+          <s v="07-Feb"/>
+          <s v="08-Feb"/>
+          <s v="09-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="01-Mar"/>
+          <s v="02-Mar"/>
+          <s v="03-Mar"/>
+          <s v="04-Mar"/>
+          <s v="05-Mar"/>
+          <s v="06-Mar"/>
+          <s v="07-Mar"/>
+          <s v="08-Mar"/>
+          <s v="09-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="01-Apr"/>
+          <s v="02-Apr"/>
+          <s v="03-Apr"/>
+          <s v="04-Apr"/>
+          <s v="05-Apr"/>
+          <s v="06-Apr"/>
+          <s v="07-Apr"/>
+          <s v="08-Apr"/>
+          <s v="09-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="01-May"/>
+          <s v="02-May"/>
+          <s v="03-May"/>
+          <s v="04-May"/>
+          <s v="05-May"/>
+          <s v="06-May"/>
+          <s v="07-May"/>
+          <s v="08-May"/>
+          <s v="09-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="01-Jun"/>
+          <s v="02-Jun"/>
+          <s v="03-Jun"/>
+          <s v="04-Jun"/>
+          <s v="05-Jun"/>
+          <s v="06-Jun"/>
+          <s v="07-Jun"/>
+          <s v="08-Jun"/>
+          <s v="09-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="01-Jul"/>
+          <s v="02-Jul"/>
+          <s v="03-Jul"/>
+          <s v="04-Jul"/>
+          <s v="05-Jul"/>
+          <s v="06-Jul"/>
+          <s v="07-Jul"/>
+          <s v="08-Jul"/>
+          <s v="09-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="01-Aug"/>
+          <s v="02-Aug"/>
+          <s v="03-Aug"/>
+          <s v="04-Aug"/>
+          <s v="05-Aug"/>
+          <s v="06-Aug"/>
+          <s v="07-Aug"/>
+          <s v="08-Aug"/>
+          <s v="09-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="01-Sep"/>
+          <s v="02-Sep"/>
+          <s v="03-Sep"/>
+          <s v="04-Sep"/>
+          <s v="05-Sep"/>
+          <s v="06-Sep"/>
+          <s v="07-Sep"/>
+          <s v="08-Sep"/>
+          <s v="09-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="01-Oct"/>
+          <s v="02-Oct"/>
+          <s v="03-Oct"/>
+          <s v="04-Oct"/>
+          <s v="05-Oct"/>
+          <s v="06-Oct"/>
+          <s v="07-Oct"/>
+          <s v="08-Oct"/>
+          <s v="09-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="01-Nov"/>
+          <s v="02-Nov"/>
+          <s v="03-Nov"/>
+          <s v="04-Nov"/>
+          <s v="05-Nov"/>
+          <s v="06-Nov"/>
+          <s v="07-Nov"/>
+          <s v="08-Nov"/>
+          <s v="09-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="01-Dec"/>
+          <s v="02-Dec"/>
+          <s v="03-Dec"/>
+          <s v="04-Dec"/>
+          <s v="05-Dec"/>
+          <s v="06-Dec"/>
+          <s v="07-Dec"/>
+          <s v="08-Dec"/>
+          <s v="09-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;02-05-2007"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="store_id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="231.16" maxValue="15858.98" count="8">
+        <n v="4465.08"/>
+        <n v="3886.76"/>
+        <n v="13019.31"/>
+        <n v="10867.25"/>
+        <n v="15858.98"/>
+        <n v="12700.48"/>
+        <n v="283.02"/>
+        <n v="231.16"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Months" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2007-02-01T00:00:00" endDate="2007-05-02T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01-02-2007"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;02-05-2007"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0818E80A-2F8E-4C3A-B92F-FEBA24C18A8F}" name="PivotTable22" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" numFmtId="22" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of revenue" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="61"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="92"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="122"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight14" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{178EE7A6-105B-4307-875E-77FCFE0719E9}" name="Table1" displayName="Table1" ref="A1:B17" totalsRowShown="0">
+  <autoFilter ref="A1:B17" xr:uid="{178EE7A6-105B-4307-875E-77FCFE0719E9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C4ABE92E-6C4B-4066-A3D4-AC448CC33F16}" name="category_name"/>
+    <tableColumn id="2" xr3:uid="{D430D146-883E-49F3-97A1-75DFF113D6D0}" name="perc_rental_count"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44D40620-C549-4F3B-8C95-D06D46F7BEFF}" name="Table2" displayName="Table2" ref="A1:D18" totalsRowCount="1">
+  <autoFilter ref="A1:D17" xr:uid="{44D40620-C549-4F3B-8C95-D06D46F7BEFF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DE2E1601-DE04-4151-B28A-10840453A043}" name="movie_category"/>
+    <tableColumn id="2" xr3:uid="{79BD05BA-41C5-49CC-B947-DA9BDDEA199B}" name="total_revenue" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D2FFCEB3-9F34-4B07-8864-1E010EA366D8}" name="average_rental_duration" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D485E54B-6EFA-4DC0-973F-FD2FC44486D0}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1915,24 +7323,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1940,7 +7355,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1948,7 +7363,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +7371,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1964,7 +7379,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1972,7 +7387,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1980,7 +7395,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +7403,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1996,7 +7411,7 @@
         <v>6.44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +7419,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +7427,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +7435,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2028,7 +7443,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2036,7 +7451,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2044,7 +7459,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2058,6 +7473,750 @@
       </c>
       <c r="B17">
         <v>5.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48CD605-2722-4E83-80BD-239004FC4E21}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4892.1899999999996</v>
+      </c>
+      <c r="C2">
+        <v>4.74</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4336.01</v>
+      </c>
+      <c r="C3">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4245.3100000000004</v>
+      </c>
+      <c r="C4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4118.46</v>
+      </c>
+      <c r="C5">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4002.48</v>
+      </c>
+      <c r="C6">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>3966.38</v>
+      </c>
+      <c r="C7">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>3951.84</v>
+      </c>
+      <c r="C8">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3934.47</v>
+      </c>
+      <c r="C9">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3922.18</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3830.15</v>
+      </c>
+      <c r="C11">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>3749.65</v>
+      </c>
+      <c r="C12">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>3401.27</v>
+      </c>
+      <c r="C13">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>3353.38</v>
+      </c>
+      <c r="C14">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>3309.39</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3227.36</v>
+      </c>
+      <c r="C16">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>3071.52</v>
+      </c>
+      <c r="C17">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497101EA-07A0-4039-9002-9FB74E3D944D}">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4465.08</v>
+      </c>
+      <c r="C5">
+        <v>3886.76</v>
+      </c>
+      <c r="D5">
+        <v>8351.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>13019.31</v>
+      </c>
+      <c r="C6">
+        <v>10867.25</v>
+      </c>
+      <c r="D6">
+        <v>23886.559999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>15858.98</v>
+      </c>
+      <c r="C7">
+        <v>12700.48</v>
+      </c>
+      <c r="D7">
+        <v>28559.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>283.02</v>
+      </c>
+      <c r="C8">
+        <v>231.16</v>
+      </c>
+      <c r="D8">
+        <v>514.17999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>33626.389999999992</v>
+      </c>
+      <c r="C9">
+        <v>27685.649999999998</v>
+      </c>
+      <c r="D9">
+        <v>61312.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBEFCF8-845C-4742-9A95-44FB9F03735E}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>39127</v>
+      </c>
+      <c r="B2">
+        <v>116.73</v>
+      </c>
+      <c r="C2">
+        <v>117</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>39128</v>
+      </c>
+      <c r="B3">
+        <v>1188.92</v>
+      </c>
+      <c r="C3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>39129</v>
+      </c>
+      <c r="B4">
+        <v>1154.18</v>
+      </c>
+      <c r="C4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>39130</v>
+      </c>
+      <c r="B5">
+        <v>1188.17</v>
+      </c>
+      <c r="C5">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>39131</v>
+      </c>
+      <c r="B6">
+        <v>1275.98</v>
+      </c>
+      <c r="C6">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>39132</v>
+      </c>
+      <c r="B7">
+        <v>1290.9000000000001</v>
+      </c>
+      <c r="C7">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>39133</v>
+      </c>
+      <c r="B8">
+        <v>1219.0899999999999</v>
+      </c>
+      <c r="C8">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>39134</v>
+      </c>
+      <c r="B9">
+        <v>917.87</v>
+      </c>
+      <c r="C9">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>39142</v>
+      </c>
+      <c r="B10">
+        <v>2808.24</v>
+      </c>
+      <c r="C10">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>39143</v>
+      </c>
+      <c r="B11">
+        <v>2550.0500000000002</v>
+      </c>
+      <c r="C11">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>39157</v>
+      </c>
+      <c r="B12">
+        <v>299.27999999999997</v>
+      </c>
+      <c r="C12">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>39158</v>
+      </c>
+      <c r="B13">
+        <v>2442.16</v>
+      </c>
+      <c r="C13">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>39159</v>
+      </c>
+      <c r="B14">
+        <v>2701.76</v>
+      </c>
+      <c r="C14">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>39160</v>
+      </c>
+      <c r="B15">
+        <v>2617.69</v>
+      </c>
+      <c r="C15">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>39161</v>
+      </c>
+      <c r="B16">
+        <v>2669.89</v>
+      </c>
+      <c r="C16">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>39162</v>
+      </c>
+      <c r="B17">
+        <v>2868.27</v>
+      </c>
+      <c r="C17">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>39163</v>
+      </c>
+      <c r="B18">
+        <v>2586.79</v>
+      </c>
+      <c r="C18">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>39164</v>
+      </c>
+      <c r="B19">
+        <v>2342.4299999999998</v>
+      </c>
+      <c r="C19">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>39177</v>
+      </c>
+      <c r="B20">
+        <v>273.36</v>
+      </c>
+      <c r="C20">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>39178</v>
+      </c>
+      <c r="B21">
+        <v>2077.14</v>
+      </c>
+      <c r="C21">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>39179</v>
+      </c>
+      <c r="B22">
+        <v>1984.28</v>
+      </c>
+      <c r="C22">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>39180</v>
+      </c>
+      <c r="B23">
+        <v>2227.84</v>
+      </c>
+      <c r="C23">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>39181</v>
+      </c>
+      <c r="B24">
+        <v>2067.86</v>
+      </c>
+      <c r="C24">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>39182</v>
+      </c>
+      <c r="B25">
+        <v>1973.18</v>
+      </c>
+      <c r="C25">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>39183</v>
+      </c>
+      <c r="B26">
+        <v>1940.32</v>
+      </c>
+      <c r="C26">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>39184</v>
+      </c>
+      <c r="B27">
+        <v>1930.48</v>
+      </c>
+      <c r="C27">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>39198</v>
+      </c>
+      <c r="B28">
+        <v>347.21</v>
+      </c>
+      <c r="C28">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>39199</v>
+      </c>
+      <c r="B29">
+        <v>2673.57</v>
+      </c>
+      <c r="C29">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>39200</v>
+      </c>
+      <c r="B30">
+        <v>2622.73</v>
+      </c>
+      <c r="C30">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>39201</v>
+      </c>
+      <c r="B31">
+        <v>2717.6</v>
+      </c>
+      <c r="C31">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>39202</v>
+      </c>
+      <c r="B32">
+        <v>5723.89</v>
+      </c>
+      <c r="C32">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>39216</v>
+      </c>
+      <c r="B33">
+        <v>514.17999999999995</v>
+      </c>
+      <c r="C33">
+        <v>2850</v>
       </c>
     </row>
   </sheetData>
